--- a/biology/Botanique/Faucaria/Faucaria.xlsx
+++ b/biology/Botanique/Faucaria/Faucaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faucaria est un genre botanique d'environ 33 espèces de plantes succulentes tropicales à fleurs de la famille des Aizoaceae.
 Le nom vient du latin "fauces" (=gueule) en raison de l'apparence des feuilles.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petites plantes de 8 cm de diamètre environ, avec des feuilles épaisses triangulaires bordées de dents dressées en paires opposées qui donnent l'aspect d'une gueule d'animal.
 Elle peut produire des rejets qui pourront donner des formes buissonnantes.
@@ -547,7 +561,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Faucaria tigrina, la plus connue (tigrina=tigre)
 Faucaria felina (felina=chat)
@@ -589,7 +605,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Placer les plantes dans des pots de petite taille avec un sol bien drainé. Dans une exposition très ensoleillée et si possible à l'extérieur en été.
 Arroser modérément en été et pas du tout en hiver pour que la plante observe une période de repos sans laquelle elle ne fleurira pas.
